--- a/Doc/Owner.xlsx
+++ b/Doc/Owner.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Loc_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,10 @@
   </si>
   <si>
     <t>Private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameLoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,43 +417,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
